--- a/src/test/resources/mouseOut/mouseOut.xlsx
+++ b/src/test/resources/mouseOut/mouseOut.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\mouseOut\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projs\auto-test\src\test\resources\mouseOut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66447677-1976-4B90-A8F2-2B76F6C6BCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0396B54B-BBAE-4C29-B5E4-FCA6C268DA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -456,21 +456,21 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="8.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -510,7 +510,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>

--- a/src/test/resources/mouseOut/mouseOut.xlsx
+++ b/src/test/resources/mouseOut/mouseOut.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projs\auto-test\src\test\resources\mouseOut\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\mouseOut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0396B54B-BBAE-4C29-B5E4-FCA6C268DA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FA88C8-40E0-48F4-97EB-BF3C55B75BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -86,15 +86,21 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -106,10 +112,130 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -123,20 +249,44 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -455,73 +605,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.58203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
+      <c r="F3" s="7"/>
+      <c r="G3" s="8">
         <v>2000</v>
       </c>
     </row>
